--- a/output_mapping_most_similar.xlsx
+++ b/output_mapping_most_similar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
   <si>
     <t>termino_1_codes</t>
   </si>
@@ -28,58 +28,190 @@
     <t>termino_2_labels</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>A50</t>
-  </si>
-  <si>
-    <t>A50A</t>
-  </si>
-  <si>
-    <t>A50AA</t>
-  </si>
-  <si>
-    <t>A50AA01</t>
-  </si>
-  <si>
-    <t>A50B</t>
-  </si>
-  <si>
-    <t>A50BA</t>
-  </si>
-  <si>
-    <t>A50BA01</t>
-  </si>
-  <si>
-    <t>TRACTUS DIGESTIF ET METABOLISME</t>
-  </si>
-  <si>
-    <t>TRACTUS DIGESTIF ALIMENTATION ENTERALE</t>
-  </si>
-  <si>
-    <t>ABANDON VOIR</t>
-  </si>
-  <si>
-    <t>NUTRITION VOIE ENTERALE</t>
-  </si>
-  <si>
-    <t>NUTRITION ENTERALE SONDE STANDARD</t>
-  </si>
-  <si>
-    <t>ABANDON</t>
-  </si>
-  <si>
-    <t>TRACTUS DIGESTIF ET METABOLISMES</t>
-  </si>
-  <si>
-    <t>TRACTUS DIGESTIF ALIMENTATION ENTERALES</t>
-  </si>
-  <si>
-    <t>NUTRITION VOIE ENTERALES</t>
-  </si>
-  <si>
-    <t>ABANDON VOIRS</t>
+    <t>similarity</t>
+  </si>
+  <si>
+    <t>Valvulopathies</t>
+  </si>
+  <si>
+    <t>Anomalie de la valve cardiaque</t>
+  </si>
+  <si>
+    <t>Maladie de la valve cardiaque</t>
+  </si>
+  <si>
+    <t>Trouble de la valve cardiaque</t>
+  </si>
+  <si>
+    <t>Trouble valvulaire cardiaque</t>
+  </si>
+  <si>
+    <t>affections des valves cardiaques</t>
+  </si>
+  <si>
+    <t>affections valvulaires cardiaques</t>
+  </si>
+  <si>
+    <t>cardiopathie valvulaire</t>
+  </si>
+  <si>
+    <t>Maladies valvulaires cardiaques</t>
+  </si>
+  <si>
+    <t>pathologies des valves cardiaques</t>
+  </si>
+  <si>
+    <t>pathologies valvulaires cardiaques</t>
+  </si>
+  <si>
+    <t>valvulopathies cardiaques</t>
+  </si>
+  <si>
+    <t>cardiaque</t>
+  </si>
+  <si>
+    <t>insuffisance cardiaque globale</t>
+  </si>
+  <si>
+    <t>insuffisance cardiaque gauche</t>
+  </si>
+  <si>
+    <t>défaillance cardiaque</t>
+  </si>
+  <si>
+    <t>insuffisance cardiaque droite</t>
+  </si>
+  <si>
+    <t>Défaillance cardiaque droite</t>
+  </si>
+  <si>
+    <t>insuffisance ventriculaire droite</t>
+  </si>
+  <si>
+    <t>insuffisance ventriculaire gauche</t>
+  </si>
+  <si>
+    <t>décompensation cardiaque</t>
+  </si>
+  <si>
+    <t>Insuffisance cardiaque</t>
+  </si>
+  <si>
+    <t>thrombus</t>
+  </si>
+  <si>
+    <t>athérome</t>
+  </si>
+  <si>
+    <t>effort physique</t>
+  </si>
+  <si>
+    <t>Angine poitrine</t>
+  </si>
+  <si>
+    <t>angine de poitrine</t>
+  </si>
+  <si>
+    <t>infarctus du myocarde</t>
+  </si>
+  <si>
+    <t>infarctus myocardique aigu</t>
+  </si>
+  <si>
+    <t>coronarien</t>
+  </si>
+  <si>
+    <t>maladie coronarienne</t>
+  </si>
+  <si>
+    <t>maladie des artères coronaires</t>
+  </si>
+  <si>
+    <t>Coronaropathie</t>
+  </si>
+  <si>
+    <t>I08</t>
+  </si>
+  <si>
+    <t>T82.0</t>
+  </si>
+  <si>
+    <t>I39</t>
+  </si>
+  <si>
+    <t>I51.9</t>
+  </si>
+  <si>
+    <t>I97.1</t>
+  </si>
+  <si>
+    <t>I50</t>
+  </si>
+  <si>
+    <t>I50.1</t>
+  </si>
+  <si>
+    <t>I50.0</t>
+  </si>
+  <si>
+    <t>I70</t>
+  </si>
+  <si>
+    <t>I20</t>
+  </si>
+  <si>
+    <t>I21.9</t>
+  </si>
+  <si>
+    <t>K05.2</t>
+  </si>
+  <si>
+    <t>E74.0</t>
+  </si>
+  <si>
+    <t>I25.1</t>
+  </si>
+  <si>
+    <t>Maladies de plusieurs valvules</t>
+  </si>
+  <si>
+    <t>Perforation dû (due) à une prothèse valvulaire cardiaque</t>
+  </si>
+  <si>
+    <t>Endocardite et atteintes valvulaires cardiaques au cours de maladies classées ailleurs</t>
+  </si>
+  <si>
+    <t>Cardiopathie, sans précision</t>
+  </si>
+  <si>
+    <t>Insuffisance cardiaque après chirurgie cardiaque ou due à la présence d'une prothèse cardiaque</t>
+  </si>
+  <si>
+    <t>Insuffisance cardiaque gauche</t>
+  </si>
+  <si>
+    <t>Défaillance cardiaque après chirurgie cardiaque ou due à la présence d'une prothèse cardiaque</t>
+  </si>
+  <si>
+    <t>Insuffisance ventriculaire droite (secondaire à une insuffisance cardiaque gauche)</t>
+  </si>
+  <si>
+    <t>Insuffisance ventriculaire gauche</t>
+  </si>
+  <si>
+    <t>Angine de poitrine</t>
+  </si>
+  <si>
+    <t>Infarctus du myocarde (aigu) SAI</t>
+  </si>
+  <si>
+    <t>Péricoronarite aigüe</t>
+  </si>
+  <si>
+    <t>Maladie de Cori</t>
+  </si>
+  <si>
+    <t>Maladie des (artères) coronaires</t>
   </si>
 </sst>
 </file>
@@ -437,13 +569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,196 +588,628 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>52</v>
+      </c>
+      <c r="F2">
+        <v>0.3125138203507455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>52</v>
+      </c>
+      <c r="F4">
+        <v>0.6845509684553183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>53</v>
+      </c>
+      <c r="F6">
+        <v>0.3429952001053099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>54</v>
+      </c>
+      <c r="F8">
+        <v>0.3174084613247775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>55</v>
+      </c>
+      <c r="F9">
+        <v>0.6724002888542948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>52</v>
+      </c>
+      <c r="F10">
+        <v>0.7357866285856596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14">
+        <v>0.5154916425916916</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15">
+        <v>0.6400051686550351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17">
+        <v>0.5501813116087844</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18">
+        <v>0.7015315370506201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19">
+        <v>0.4304339017750458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20">
+        <v>0.719152019700374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23">
+        <v>0.6400051686550351</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30">
+        <v>0.8620192531439554</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32">
+        <v>0.4510150462450132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33">
+        <v>0.6396716859275881</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
